--- a/templates/documents/completion_template.xlsx
+++ b/templates/documents/completion_template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19255472-0CC6-4789-996D-3FF65A91C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9920"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="完了届" state="visible" r:id="rId4"/>
+    <sheet name="完了届" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>業務完了届</t>
   </si>
@@ -32,36 +33,6 @@
   </si>
   <si>
     <t>完了日:</t>
-  </si>
-  <si>
-    <t>成果物一覧</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>成果物名</t>
-  </si>
-  <si>
-    <t>形式</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>品質管理</t>
-  </si>
-  <si>
-    <t>検査実施日:</t>
-  </si>
-  <si>
-    <t>検査結果:</t>
-  </si>
-  <si>
-    <t>備考:</t>
   </si>
   <si>
     <t>署名欄</t>
@@ -82,55 +53,62 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <charset val="128"/>
-      <family val="3"/>
       <sz val="16"/>
       <name val="MS Gothic"/>
-    </font>
-    <font>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
       <b/>
-      <charset val="128"/>
-      <family val="3"/>
       <sz val="11"/>
       <name val="MS Gothic"/>
-    </font>
-    <font>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
-      <charset val="128"/>
-      <family val="3"/>
       <sz val="12"/>
       <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <i/>
-      <charset val="128"/>
-      <family val="3"/>
       <sz val="9"/>
       <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -147,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -155,22 +133,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -178,30 +146,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,17 +465,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.54296875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -518,210 +483,97 @@
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="25" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="23" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5"/>
+    <row r="14" spans="1:5"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="95" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/templates/documents/completion_template.xlsx
+++ b/templates/documents/completion_template.xlsx
@@ -1,50 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19255472-0CC6-4789-996D-3FF65A91C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9920"/>
   </bookViews>
   <sheets>
-    <sheet name="完了届" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="完了届" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>業務完了届</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>作成日:</t>
   </si>
   <si>
+    <t>2025/10/5</t>
+  </si>
+  <si>
     <t>プロジェクト情報</t>
   </si>
   <si>
     <t>プロジェクト名:</t>
   </si>
   <si>
+    <t>サポート利用</t>
+  </si>
+  <si>
     <t>受注者名:</t>
   </si>
   <si>
+    <t>海江田 誠</t>
+  </si>
+  <si>
     <t>完了日:</t>
   </si>
   <si>
-    <t>署名欄</t>
-  </si>
-  <si>
-    <t>受注者署名:</t>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>契約金額:</t>
+  </si>
+  <si>
+    <t>¥1,000,000</t>
   </si>
   <si>
     <t>日付:</t>
   </si>
   <si>
-    <t/>
+    <t>成果物</t>
   </si>
   <si>
     <t>※ 本届出書は電子署名により法的効力を有します</t>
@@ -53,65 +67,64 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <b/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="11"/>
       <name val="MS Gothic"/>
+    </font>
+    <font>
+      <charset val="128"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
+      <name val="MS Gothic"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF2C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="MS Gothic"/>
+    </font>
+    <font>
+      <color rgb="FF7F8C8D"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <i/>
+      <charset val="128"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <i/>
       <sz val="9"/>
       <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,12 +133,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6FA"/>
-        <bgColor rgb="FFE6E6FA"/>
+        <fgColor rgb="FFE8F4FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6EAF8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,40 +150,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,115 +498,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="23" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5"/>
-    <row r="14" spans="1:5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A12:E12"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="95" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>